--- a/biology/Zoologie/Eucestoda/Eucestoda.xlsx
+++ b/biology/Zoologie/Eucestoda/Eucestoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eucestoda sont une sous-classe de vers plats de la classe des cestodes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des ordres et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le World Register of Marine Species                               (4 novembre 2023)[1], la décomposition des Eucestoda est la suivante :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (4 novembre 2023), la décomposition des Eucestoda est la suivante :
 Sous-classe Eucestoda
 ordre Bothriocephalidea Kuchta, Scholz, Brabec &amp; Bray, 2008 
 famille Bothriocephalidae Blanchard, 1849
@@ -601,12 +615,80 @@
 genre Bothriotaenia Railliet, 1892
 genre Dibothrium Diesing, 1850
 genre Maccallumiella Yamaguti, 1952
-genre Prosthecocotyle Monticelli, 1892
-Taxons obsolètes [1]
-Ancien ordre Proteocephalidea : maintenant dans Onchoproteocephalidea
-Ancien ordre Pseudophyllidea : maintenant dans Diphyllobothriidea ou Bothriocephalidea
-Pour mémoire
-Liste des ordres selon ITIS      (25 nov. 2018)[2] :
+genre Prosthecocotyle Monticelli, 1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eucestoda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eucestoda</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des ordres et familles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxons obsolètes [1]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ancien ordre Proteocephalidea : maintenant dans Onchoproteocephalidea
+Ancien ordre Pseudophyllidea : maintenant dans Diphyllobothriidea ou Bothriocephalidea</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eucestoda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eucestoda</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des ordres et familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pour mémoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des ordres selon ITIS      (25 nov. 2018) :
 Bothriocephalidea
 Caryophyllidea
 Cathetocephalidea
@@ -624,7 +706,7 @@
 Tetrabothriidea
 Tetraphyllidea
 Trypanorhyncha
-Liste des ordres selon NCBI  (23 janvier 2021)[3] :
+Liste des ordres selon NCBI  (23 janvier 2021) :
 Aporidea
 Bothriocephalidea
 Caryophyllidea
